--- a/Risikoannalyse.xlsx
+++ b/Risikoannalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieljohansorby/Repositories/JobTrackr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7491C12-C9F8-1D42-A0F8-ECB78AA66EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AA0AD-5BD7-A24F-A6A7-184CDD8DACB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C2EEBCF1-F72A-CC44-8879-67A66F1DECB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -50,18 +50,9 @@
     <t>Tiltak</t>
   </si>
   <si>
-    <t>Windows maskin får ikke tilkobling til Mac</t>
-  </si>
-  <si>
     <t>Lav</t>
   </si>
   <si>
-    <t xml:space="preserve">Koble på samme nett, kontrollere ip addresser </t>
-  </si>
-  <si>
-    <t>Ha en backup som jeg vet funker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prioriteringsgrad </t>
   </si>
   <si>
@@ -80,16 +71,43 @@
     <t>Vm blir ødelagt under oppsett</t>
   </si>
   <si>
-    <t xml:space="preserve">Koble meg inn via kabel fra veggen </t>
-  </si>
-  <si>
-    <t>Mister internettforbinnelse for bakkaadmin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vm kræsjer ut av det blå </t>
-  </si>
-  <si>
-    <t>Stoppe vm og starte på nytt</t>
+    <t>Backup på stasjonær pc</t>
+  </si>
+  <si>
+    <t>Mister kobling til VM</t>
+  </si>
+  <si>
+    <t>Sjekke på serverrommet</t>
+  </si>
+  <si>
+    <t>VM bare krasher</t>
+  </si>
+  <si>
+    <t>Start på nytt, hvis ikke bruk backup</t>
+  </si>
+  <si>
+    <t>Kommer meg ikke på VM</t>
+  </si>
+  <si>
+    <t>Sjekk nett, og serverrommet</t>
+  </si>
+  <si>
+    <t>Serveren brenner opp / blir ødelagt</t>
+  </si>
+  <si>
+    <t>Ha backups</t>
+  </si>
+  <si>
+    <t>SQL Injections</t>
+  </si>
+  <si>
+    <t>Bruke løsninger som hindrer det</t>
+  </si>
+  <si>
+    <t>DDOS</t>
+  </si>
+  <si>
+    <t>Ha flere løsninger for Hosting, og skru på anti DDOS hos CloudFlare</t>
   </si>
 </sst>
 </file>
@@ -114,25 +132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF328549"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3B739"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE27A05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD64131"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9B53E6A-E6F7-AC48-AAF4-D8A06AC9612E}" name="Tabell2" displayName="Tabell2" ref="C3:G9" totalsRowShown="0">
-  <autoFilter ref="C3:G9" xr:uid="{A9B53E6A-E6F7-AC48-AAF4-D8A06AC9612E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9B53E6A-E6F7-AC48-AAF4-D8A06AC9612E}" name="Tabell2" displayName="Tabell2" ref="C3:G19" totalsRowShown="0">
+  <autoFilter ref="C3:G19" xr:uid="{A9B53E6A-E6F7-AC48-AAF4-D8A06AC9612E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9C4DA9A0-5F57-624E-95D2-854C49B891B9}" name="Problem "/>
     <tableColumn id="2" xr3:uid="{96BB801D-A828-114F-A781-76CE23251AE0}" name="Sannsynlighet"/>
@@ -658,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6EF1C9-1A35-F946-83F6-E23F6D235419}">
-  <dimension ref="C3:L7"/>
+  <dimension ref="C3:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,7 +687,7 @@
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
@@ -688,120 +706,171 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
